--- a/Board.xlsx
+++ b/Board.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -29,6 +29,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -118,7 +119,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -128,10 +129,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -231,12 +228,12 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="R8" activeCellId="0" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="28.35"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="5.10204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="4.99489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -246,21 +243,21 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="3" t="n">
+      <c r="G1" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="H1" s="3" t="n">
+      <c r="H1" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="I1" s="3" t="n">
+      <c r="I1" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
@@ -269,67 +266,59 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="H2" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="I2" s="4" t="n">
+      <c r="I2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2"/>
@@ -338,21 +327,21 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2"/>
@@ -361,284 +350,276 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="3" t="n">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="L7" s="3" t="n">
+      <c r="L7" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="M7" s="6" t="n">
+      <c r="M7" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="N7" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="O7" s="1" t="n">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5" t="n">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="3" t="n">
+      <c r="I8" s="4"/>
+      <c r="J8" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="L8" s="3" t="n">
+      <c r="L8" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="M8" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="N8" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="O8" s="3" t="n">
+      <c r="O8" s="1" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="1" t="n">
         <v>36</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="3" t="n">
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="K9" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="L9" s="3" t="n">
+      <c r="L9" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="M9" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="N9" s="6" t="n">
+      <c r="N9" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="O9" s="3" t="n">
+      <c r="O9" s="1" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="3" t="n">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="3" t="n">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="3" t="n">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="3" t="n">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7" t="n">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="3" t="n">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="H15" s="3" t="n">
+      <c r="H15" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
